--- a/documents/0706_location_center.xlsx
+++ b/documents/0706_location_center.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D78A5-93D1-4151-9ACB-484060CF4385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19660" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,26 +47,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>marker_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marker_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Designed_X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Designed_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker_J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,14 +161,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +209,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -265,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,32 +454,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -471,59 +488,202 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.57220000000000004</v>
+      </c>
       <c r="D2" s="1">
-        <v>-0.99099999999999999</v>
+        <v>7.3440000000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>-2.1110000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15.302</v>
+      </c>
+      <c r="I2" s="1">
+        <v>977</v>
+      </c>
+      <c r="J2" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="1">
+        <v>-0.32319999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.92730000000000001</v>
+      </c>
       <c r="D3" s="1">
-        <v>-0.39500000000000002</v>
+        <v>7.1966000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>-3.6139999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-14.6968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.373531</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.897702</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-2.6556600000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15.35169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1.802068</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.84577899999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2.7056200000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.3524700000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-2.60772</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25.35087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>-2.794</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-3.6059999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="D12" s="1">
+        <v>-22.8049</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-14.550269999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-22.803899999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-14.5503</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>-2.7890000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-1.6060000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="D16" s="1">
+        <v>-22.655100000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15.4499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.3443339999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15.302572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-0.32319999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.1962767999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-14.695873000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-0.373531</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.897702</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-2.6560000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>15.352589999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1.802068</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-0.84577899999999995</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-2.7074220000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.3516300000000001</v>
       </c>
     </row>
   </sheetData>
@@ -534,12 +694,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -547,12 +707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
